--- a/inputs/inputs_compartments.xlsx
+++ b/inputs/inputs_compartments.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PradoDomercq\Documents\Python Scripts\UTOPIA_model\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C6308FCC-EF10-40EF-9E96-1F13F5CB87AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582757F2-688A-459C-B247-B00ED9C59D06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs_compartments" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -950,11 +950,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -962,6 +962,7 @@
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.6328125" bestFit="1" customWidth="1"/>
@@ -1006,7 +1007,7 @@
       </c>
       <c r="C2" s="1">
         <f>C5</f>
-        <v>22074999.999999996</v>
+        <v>67092177.75</v>
       </c>
       <c r="D2">
         <v>278</v>
@@ -1019,13 +1020,13 @@
       </c>
       <c r="G2" s="1">
         <f>I2*H2</f>
-        <v>1720000000000000</v>
+        <v>1631399269500000.3</v>
       </c>
       <c r="H2">
         <v>5</v>
       </c>
       <c r="I2" s="1">
-        <v>344000000000000</v>
+        <v>326279853900000.06</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -1038,7 +1039,7 @@
       </c>
       <c r="C3" s="1">
         <f>C6</f>
-        <v>147166666.66666666</v>
+        <v>447281185</v>
       </c>
       <c r="D3">
         <v>278</v>
@@ -1051,13 +1052,13 @@
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G18" si="0">I3*H3</f>
-        <v>3.44E+16</v>
+        <v>3.2627985390000008E+16</v>
       </c>
       <c r="H3">
         <v>100</v>
       </c>
       <c r="I3" s="1">
-        <v>344000000000000</v>
+        <v>326279853900000.06</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -1082,13 +1083,13 @@
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>1.032E+18</v>
+        <v>1.3051194156000003E+18</v>
       </c>
       <c r="H4">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="I4" s="1">
-        <v>344000000000000</v>
+        <v>326279853900000.06</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -1101,7 +1102,7 @@
       </c>
       <c r="C5" s="1">
         <f>(I5/60000)*H5*E5</f>
-        <v>22074999.999999996</v>
+        <v>67092177.75</v>
       </c>
       <c r="D5">
         <v>278</v>
@@ -1114,13 +1115,13 @@
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
-        <v>22075000000000</v>
+        <v>67092177750000</v>
       </c>
       <c r="H5">
         <v>2.5</v>
       </c>
       <c r="I5" s="1">
-        <v>8830000000000</v>
+        <v>26836871100000</v>
       </c>
       <c r="J5" s="1"/>
     </row>
@@ -1133,7 +1134,7 @@
       </c>
       <c r="C6" s="1">
         <f>(I6/60000)*H6*E6</f>
-        <v>147166666.66666666</v>
+        <v>447281185</v>
       </c>
       <c r="D6">
         <v>278</v>
@@ -1146,13 +1147,13 @@
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
-        <v>441500000000000</v>
+        <v>1341843555000000</v>
       </c>
       <c r="H6">
         <v>50</v>
       </c>
       <c r="I6" s="1">
-        <v>8830000000000</v>
+        <v>26836871100000</v>
       </c>
       <c r="J6" s="1"/>
     </row>
@@ -1331,13 +1332,13 @@
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>562000000000</v>
+        <v>44378700000</v>
       </c>
       <c r="H12">
         <v>0.01</v>
       </c>
       <c r="I12" s="1">
-        <v>56200000000000</v>
+        <v>4437870000000</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -1361,13 +1362,13 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>5620000000000</v>
+        <v>443787000000</v>
       </c>
       <c r="H13">
         <v>0.1</v>
       </c>
       <c r="I13" s="1">
-        <v>56200000000000</v>
+        <v>4437870000000</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -1391,13 +1392,13 @@
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>888000000000</v>
+        <v>872781100000</v>
       </c>
       <c r="H14">
         <v>0.01</v>
       </c>
       <c r="I14" s="1">
-        <v>88800000000000</v>
+        <v>87278110000000</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1421,13 +1422,13 @@
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>8880000000000</v>
+        <v>8727811000000</v>
       </c>
       <c r="H15">
         <v>0.1</v>
       </c>
       <c r="I15" s="1">
-        <v>88800000000000</v>
+        <v>87278110000000</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -1451,13 +1452,13 @@
       </c>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
-        <v>592000000000</v>
+        <v>11242604000000</v>
       </c>
       <c r="H16">
         <v>0.2</v>
       </c>
       <c r="I16" s="1">
-        <v>2960000000000</v>
+        <v>56213020000000</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1481,13 +1482,13 @@
       </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
-        <v>296000000000</v>
+        <v>5621302000000</v>
       </c>
       <c r="H17">
         <v>0.1</v>
       </c>
       <c r="I17" s="1">
-        <v>2960000000000</v>
+        <v>56213020000000</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1529,7 +1530,7 @@
       </c>
       <c r="G20" s="1">
         <f>SUM(G2,G3,G4,G5,G6,G7,G8)</f>
-        <v>1.068683125E+18</v>
+        <v>1.3408872859922504E+18</v>
       </c>
       <c r="H20" t="s">
         <v>29</v>

--- a/inputs/inputs_compartments.xlsx
+++ b/inputs/inputs_compartments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PradoDomercq\Documents\Python Scripts\UTOPIA_model\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582757F2-688A-459C-B247-B00ED9C59D06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFCA5B7-9D73-4FE6-A46A-18166C33CE07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,24 +82,12 @@
     <t>Sediment_Coast</t>
   </si>
   <si>
-    <t>Urban_Soil_Surface</t>
-  </si>
-  <si>
-    <t>Urban_Soil</t>
-  </si>
-  <si>
     <t>Background_Soil_Surface</t>
   </si>
   <si>
     <t>Background_Soil</t>
   </si>
   <si>
-    <t>Agricultural_Soil_Surface</t>
-  </si>
-  <si>
-    <t>Agricultural_Soil</t>
-  </si>
-  <si>
     <t>Air</t>
   </si>
   <si>
@@ -110,6 +98,18 @@
   </si>
   <si>
     <t>Have to adjust depths so that it gets closer to the USGS estimate</t>
+  </si>
+  <si>
+    <t>Beaches_Soil_Surface</t>
+  </si>
+  <si>
+    <t>Beaches_Deep_Soil</t>
+  </si>
+  <si>
+    <t>Impacted_Soil_Surface</t>
+  </si>
+  <si>
+    <t>Impacted_Soil</t>
   </si>
 </sst>
 </file>
@@ -954,7 +954,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1179,13 +1179,13 @@
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>9050000000000</v>
+        <v>9054275000000</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>9050000000000</v>
+        <v>9054275000000</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -1211,13 +1211,13 @@
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>90500000000000</v>
+        <v>90542750000000</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
       <c r="I8" s="1">
-        <v>9050000000000</v>
+        <v>9054275000000</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -1242,13 +1242,13 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>905000000000</v>
+        <v>905427500000</v>
       </c>
       <c r="H9">
         <v>0.1</v>
       </c>
       <c r="I9" s="1">
-        <v>9050000000000</v>
+        <v>9054275000000</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -1272,13 +1272,13 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>10320000000000</v>
+        <v>9788395617000.002</v>
       </c>
       <c r="H10">
         <v>0.03</v>
       </c>
       <c r="I10" s="1">
-        <v>344000000000000</v>
+        <v>326279853900000.06</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -1302,18 +1302,18 @@
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>883000000000</v>
+        <v>2683687110000</v>
       </c>
       <c r="H11">
         <v>0.1</v>
       </c>
       <c r="I11" s="1">
-        <v>8830000000000</v>
+        <v>26836871100000</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -1332,18 +1332,18 @@
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>44378700000</v>
+        <v>3441</v>
       </c>
       <c r="H12">
         <v>0.01</v>
       </c>
       <c r="I12" s="1">
-        <v>4437870000000</v>
+        <v>344100</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1362,18 +1362,18 @@
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>443787000000</v>
+        <v>34410</v>
       </c>
       <c r="H13">
         <v>0.1</v>
       </c>
       <c r="I13" s="1">
-        <v>4437870000000</v>
+        <v>344100</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1392,18 +1392,18 @@
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>872781100000</v>
+        <v>872781096559</v>
       </c>
       <c r="H14">
         <v>0.01</v>
       </c>
       <c r="I14" s="1">
-        <v>87278110000000</v>
+        <v>87278109655900</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -1422,18 +1422,18 @@
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>8727811000000</v>
+        <v>8727810965590</v>
       </c>
       <c r="H15">
         <v>0.1</v>
       </c>
       <c r="I15" s="1">
-        <v>87278110000000</v>
+        <v>87278109655900</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1452,18 +1452,18 @@
       </c>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
-        <v>11242604000000</v>
+        <v>12130178000000</v>
       </c>
       <c r="H16">
         <v>0.2</v>
       </c>
       <c r="I16" s="1">
-        <v>56213020000000</v>
+        <v>60650890000000</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1482,18 +1482,18 @@
       </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
-        <v>5621302000000</v>
+        <v>6065089000000</v>
       </c>
       <c r="H17">
         <v>0.1</v>
       </c>
       <c r="I17" s="1">
-        <v>56213020000000</v>
+        <v>60650890000000</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -1512,13 +1512,13 @@
       </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
-        <v>3.06E+18</v>
+        <v>3.0606E+18</v>
       </c>
       <c r="H18">
         <v>6000</v>
       </c>
       <c r="I18" s="1">
-        <v>510000000000000</v>
+        <v>510100000000000</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1526,19 +1526,19 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G20" s="1">
         <f>SUM(G2,G3,G4,G5,G6,G7,G8)</f>
-        <v>1.3408872859922504E+18</v>
+        <v>1.3408873330172503E+18</v>
       </c>
       <c r="H20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G21">
         <f>1386000000000000000</f>
